--- a/data/metadata_soil_roots.xlsx
+++ b/data/metadata_soil_roots.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23515"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10209"/>
   <workbookPr checkCompatibility="1" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ana/Google Drive/Ana+Camille/juniperus_project/juniperus_paper/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F306F42C-EE31-3447-B4DA-CD18A06D0E5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30800" windowHeight="15520"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="soil_variables" sheetId="1" r:id="rId1"/>
@@ -17,16 +23,18 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">soil_variables!$29:$30</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
@@ -500,7 +508,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -883,21 +891,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -923,6 +916,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="97">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1037,7 +1045,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="SITIOS"/>
@@ -2626,14 +2634,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N86"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="G2" zoomScale="135" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A77" zoomScale="135" zoomScalePageLayoutView="135" workbookViewId="0">
       <selection activeCell="O25" sqref="O1:P1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.1640625" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" customWidth="1"/>
@@ -2646,36 +2654,36 @@
     <col min="10" max="11" width="6.5" customWidth="1"/>
     <col min="12" max="12" width="8.1640625" customWidth="1"/>
     <col min="13" max="13" width="7.33203125" customWidth="1"/>
-    <col min="14" max="14" width="10.83203125" style="48"/>
+    <col min="14" max="14" width="10.83203125" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="G3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="41">
+      <c r="H3" s="55">
         <v>43931</v>
       </c>
-      <c r="I3" s="41"/>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="I3" s="55"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="G4" s="4" t="s">
         <v>21</v>
       </c>
@@ -2684,7 +2692,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -2697,7 +2705,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -2707,7 +2715,7 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>105</v>
       </c>
@@ -2719,7 +2727,7 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -2729,14 +2737,14 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="E9" s="6"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>29</v>
       </c>
@@ -2745,89 +2753,89 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
-      <c r="N10" s="49"/>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="N10" s="44"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="42" t="s">
+      <c r="C11" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="42"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="51"/>
       <c r="M11" s="3"/>
-      <c r="N11" s="49"/>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="C12" s="42" t="s">
+      <c r="N11" s="44"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C12" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="42"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="51"/>
       <c r="M12" s="3"/>
-      <c r="N12" s="49"/>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="C13" s="42" t="s">
+      <c r="N12" s="44"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C13" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="51"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="42" t="s">
+      <c r="C14" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="42"/>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="C15" s="42" t="s">
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="51"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C15" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="42"/>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="51"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
         <v>1</v>
       </c>
@@ -2835,7 +2843,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
         <v>3</v>
       </c>
@@ -2843,7 +2851,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
         <v>5</v>
       </c>
@@ -2851,7 +2859,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
         <v>7</v>
       </c>
@@ -2859,7 +2867,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
         <v>35</v>
       </c>
@@ -2867,7 +2875,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
         <v>10</v>
       </c>
@@ -2875,60 +2883,60 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C23" s="44" t="s">
+      <c r="C23" s="53" t="s">
         <v>108</v>
       </c>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="44"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="53"/>
       <c r="N23" s="18"/>
     </row>
-    <row r="24" spans="1:14">
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="44"/>
-      <c r="K24" s="44"/>
-      <c r="L24" s="44"/>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="53"/>
       <c r="M24" s="15"/>
       <c r="N24" s="18"/>
     </row>
-    <row r="25" spans="1:14">
-      <c r="C25" s="42" t="s">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C25" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="42"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="51"/>
+      <c r="K25" s="51"/>
+      <c r="L25" s="51"/>
       <c r="M25" s="9"/>
-      <c r="N25" s="50"/>
-    </row>
-    <row r="26" spans="1:14">
+      <c r="N25" s="45"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>39</v>
       </c>
@@ -2945,40 +2953,40 @@
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
       <c r="M26" s="12"/>
-      <c r="N26" s="50"/>
-    </row>
-    <row r="27" spans="1:14">
-      <c r="C27" s="42" t="s">
+      <c r="N26" s="45"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C27" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="42"/>
-      <c r="L27" s="42"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="51"/>
+      <c r="K27" s="51"/>
+      <c r="L27" s="51"/>
       <c r="M27" s="12"/>
-      <c r="N27" s="50"/>
-    </row>
-    <row r="28" spans="1:14">
+      <c r="N27" s="45"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="12"/>
-      <c r="N28" s="50"/>
-    </row>
-    <row r="29" spans="1:14">
+      <c r="N28" s="45"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="34" t="s">
         <v>28</v>
       </c>
       <c r="B29" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="C29" s="45" t="s">
+      <c r="C29" s="40" t="s">
         <v>43</v>
       </c>
       <c r="D29" s="35" t="s">
@@ -2990,22 +2998,22 @@
       <c r="F29" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="G29" s="45" t="s">
+      <c r="G29" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="H29" s="43" t="s">
+      <c r="H29" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="I29" s="43"/>
-      <c r="J29" s="43"/>
-      <c r="K29" s="43"/>
-      <c r="L29" s="43"/>
-      <c r="M29" s="43"/>
-      <c r="N29" s="52" t="s">
+      <c r="I29" s="52"/>
+      <c r="J29" s="52"/>
+      <c r="K29" s="52"/>
+      <c r="L29" s="52"/>
+      <c r="M29" s="52"/>
+      <c r="N29" s="47" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="36"/>
       <c r="B30" s="37"/>
       <c r="C30" s="38"/>
@@ -3021,29 +3029,29 @@
       <c r="G30" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="H30" s="46" t="s">
+      <c r="H30" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="I30" s="46" t="s">
+      <c r="I30" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="J30" s="46" t="s">
+      <c r="J30" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="K30" s="46" t="s">
+      <c r="K30" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="L30" s="46" t="s">
+      <c r="L30" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="M30" s="47" t="s">
+      <c r="M30" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="N30" s="51" t="s">
+      <c r="N30" s="46" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="39" t="s">
         <v>63</v>
       </c>
@@ -3083,7 +3091,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="39"/>
       <c r="B32" s="28"/>
       <c r="C32" s="25">
@@ -3115,9 +3123,9 @@
       <c r="M32" s="22">
         <v>6.0622914349276982E-2</v>
       </c>
-      <c r="N32" s="50"/>
-    </row>
-    <row r="33" spans="1:14">
+      <c r="N32" s="45"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="39" t="s">
         <v>64</v>
       </c>
@@ -3157,7 +3165,7 @@
         <v>30.7</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="39"/>
       <c r="B34" s="28"/>
       <c r="C34" s="25">
@@ -3190,7 +3198,7 @@
         <v>7.2191323692992221E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="39" t="s">
         <v>65</v>
       </c>
@@ -3230,7 +3238,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="14" customHeight="1">
+    <row r="36" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="39"/>
       <c r="B36" s="28"/>
       <c r="C36" s="25"/>
@@ -3261,7 +3269,7 @@
         <v>3.8820912124582871E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="19" customHeight="1">
+    <row r="37" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="39" t="s">
         <v>66</v>
       </c>
@@ -3297,11 +3305,11 @@
       <c r="M37" s="22">
         <v>2.9477196885428252E-2</v>
       </c>
-      <c r="N37" s="48">
+      <c r="N37" s="43">
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="39"/>
       <c r="B38" s="28"/>
       <c r="C38" s="25">
@@ -3334,7 +3342,7 @@
         <v>2.6473859844271409E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="39" t="s">
         <v>67</v>
       </c>
@@ -3370,11 +3378,11 @@
       <c r="M39" s="22">
         <v>5.7508342602892108E-2</v>
       </c>
-      <c r="N39" s="48">
+      <c r="N39" s="43">
         <v>25.6</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="39"/>
       <c r="B40" s="28"/>
       <c r="C40" s="25">
@@ -3407,7 +3415,7 @@
         <v>5.8064516129032261E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="39" t="s">
         <v>68</v>
       </c>
@@ -3443,11 +3451,11 @@
       <c r="M41" s="22">
         <v>7.8976640711902121E-3</v>
       </c>
-      <c r="N41" s="48">
+      <c r="N41" s="43">
         <v>17.599999999999998</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="39"/>
       <c r="B42" s="28"/>
       <c r="C42" s="25">
@@ -3480,7 +3488,7 @@
         <v>7.6751946607341495E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="39" t="s">
         <v>69</v>
       </c>
@@ -3520,7 +3528,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="39"/>
       <c r="B44" s="28"/>
       <c r="C44" s="25">
@@ -3553,7 +3561,7 @@
         <v>4.226918798665184E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="39" t="s">
         <v>70</v>
       </c>
@@ -3593,7 +3601,7 @@
         <v>26.700000000000003</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="39"/>
       <c r="B46" s="28"/>
       <c r="C46" s="25">
@@ -3626,7 +3634,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="39" t="s">
         <v>71</v>
       </c>
@@ -3666,7 +3674,7 @@
         <v>25.3</v>
       </c>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="39"/>
       <c r="B48" s="28"/>
       <c r="C48" s="25">
@@ -3699,7 +3707,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="39" t="s">
         <v>72</v>
       </c>
@@ -3739,7 +3747,7 @@
         <v>26.6</v>
       </c>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="39"/>
       <c r="B50" s="28"/>
       <c r="C50" s="25">
@@ -3772,7 +3780,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="39" t="s">
         <v>73</v>
       </c>
@@ -3812,7 +3820,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="39"/>
       <c r="B52" s="28"/>
       <c r="C52" s="25">
@@ -3845,7 +3853,7 @@
         <v>0.14894327030033372</v>
       </c>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="39" t="s">
         <v>74</v>
       </c>
@@ -3885,7 +3893,7 @@
         <v>22.8</v>
       </c>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="39"/>
       <c r="B54" s="28"/>
       <c r="C54" s="25">
@@ -3918,7 +3926,7 @@
         <v>2.9810901001112347E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="39" t="s">
         <v>75</v>
       </c>
@@ -3954,11 +3962,11 @@
       <c r="M55" s="22">
         <v>5.2614015572858726E-2</v>
       </c>
-      <c r="N55" s="48">
+      <c r="N55" s="43">
         <v>5.5200000000000138</v>
       </c>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="39"/>
       <c r="B56" s="28"/>
       <c r="C56" s="25">
@@ -3991,7 +3999,7 @@
         <v>4.0823136818687433E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="39" t="s">
         <v>76</v>
       </c>
@@ -4027,11 +4035,11 @@
       <c r="M57" s="22">
         <v>6.006674082313682E-3</v>
       </c>
-      <c r="N57" s="48">
+      <c r="N57" s="43">
         <v>4.4799999999999951</v>
       </c>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="39"/>
       <c r="B58" s="28"/>
       <c r="C58" s="25">
@@ -4064,7 +4072,7 @@
         <v>1.0901001112347052E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="39" t="s">
         <v>77</v>
       </c>
@@ -4100,11 +4108,11 @@
       <c r="M59" s="22">
         <v>4.449388209121246E-2</v>
       </c>
-      <c r="N59" s="48">
+      <c r="N59" s="43">
         <v>6.899999999999995</v>
       </c>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="39"/>
       <c r="B60" s="28"/>
       <c r="C60" s="25">
@@ -4137,7 +4145,7 @@
         <v>3.5261401557285875E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="39" t="s">
         <v>78</v>
       </c>
@@ -4173,11 +4181,11 @@
       <c r="M61" s="22">
         <v>2.0639599555061179</v>
       </c>
-      <c r="N61" s="48">
+      <c r="N61" s="43">
         <v>5.1099999999999923</v>
       </c>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="39"/>
       <c r="B62" s="28"/>
       <c r="C62" s="25">
@@ -4210,7 +4218,7 @@
         <v>2.0374860956618464</v>
       </c>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="39" t="s">
         <v>79</v>
       </c>
@@ -4246,11 +4254,11 @@
       <c r="M63" s="22">
         <v>0.10489432703003337</v>
       </c>
-      <c r="N63" s="48">
+      <c r="N63" s="43">
         <v>8.2099999999999831</v>
       </c>
     </row>
-    <row r="64" spans="1:14">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="39"/>
       <c r="B64" s="28"/>
       <c r="C64" s="25">
@@ -4283,7 +4291,7 @@
         <v>0.10077864293659623</v>
       </c>
     </row>
-    <row r="65" spans="1:14">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="39" t="s">
         <v>80</v>
       </c>
@@ -4319,11 +4327,11 @@
       <c r="M65" s="22">
         <v>0.12847608453837597</v>
       </c>
-      <c r="N65" s="48">
+      <c r="N65" s="43">
         <v>8.1499999999999915</v>
       </c>
     </row>
-    <row r="66" spans="1:14">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="39"/>
       <c r="B66" s="28"/>
       <c r="C66" s="25">
@@ -4356,7 +4364,7 @@
         <v>0.14260289210233593</v>
       </c>
     </row>
-    <row r="67" spans="1:14">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" s="39" t="s">
         <v>81</v>
       </c>
@@ -4392,11 +4400,11 @@
       <c r="M67" s="22">
         <v>6.0289210233592884E-2</v>
       </c>
-      <c r="N67" s="48">
+      <c r="N67" s="43">
         <v>6.1700000000000088</v>
       </c>
     </row>
-    <row r="68" spans="1:14">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" s="39"/>
       <c r="B68" s="28"/>
       <c r="C68" s="25">
@@ -4429,7 +4437,7 @@
         <v>7.0856507230255841E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:14">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" s="39" t="s">
         <v>82</v>
       </c>
@@ -4465,11 +4473,11 @@
       <c r="M69" s="22">
         <v>0.22903225806451613</v>
       </c>
-      <c r="N69" s="53">
+      <c r="N69" s="48">
         <v>10.885000000000012</v>
       </c>
     </row>
-    <row r="70" spans="1:14">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="39"/>
       <c r="B70" s="28"/>
       <c r="C70" s="25">
@@ -4502,7 +4510,7 @@
         <v>0.21468298109010014</v>
       </c>
     </row>
-    <row r="71" spans="1:14">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="39" t="s">
         <v>83</v>
       </c>
@@ -4538,11 +4546,11 @@
       <c r="M71" s="22">
         <v>0.59699666295884324</v>
       </c>
-      <c r="N71" s="53">
+      <c r="N71" s="48">
         <v>5.4900000000000171</v>
       </c>
     </row>
-    <row r="72" spans="1:14">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" s="39"/>
       <c r="B72" s="28"/>
       <c r="C72" s="25">
@@ -4575,7 +4583,7 @@
         <v>0.63303670745272522</v>
       </c>
     </row>
-    <row r="73" spans="1:14">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" s="39" t="s">
         <v>84</v>
       </c>
@@ -4611,11 +4619,11 @@
       <c r="M73" s="22">
         <v>1.4917686318131256</v>
       </c>
-      <c r="N73" s="53">
+      <c r="N73" s="48">
         <v>11.7</v>
       </c>
     </row>
-    <row r="74" spans="1:14">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="39"/>
       <c r="B74" s="28"/>
       <c r="C74" s="25">
@@ -4648,7 +4656,7 @@
         <v>1.4775305895439377</v>
       </c>
     </row>
-    <row r="75" spans="1:14">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" s="39" t="s">
         <v>85</v>
       </c>
@@ -4684,11 +4692,11 @@
       <c r="M75" s="22">
         <v>0.24382647385984424</v>
       </c>
-      <c r="N75" s="53">
+      <c r="N75" s="48">
         <v>7.5299999999999923</v>
       </c>
     </row>
-    <row r="76" spans="1:14">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" s="39"/>
       <c r="B76" s="28"/>
       <c r="C76" s="29">
@@ -4721,7 +4729,7 @@
         <v>0.24349276974416018</v>
       </c>
     </row>
-    <row r="77" spans="1:14">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" s="39" t="s">
         <v>86</v>
       </c>
@@ -4757,11 +4765,11 @@
       <c r="M77" s="33">
         <v>3.6484983314794217E-2</v>
       </c>
-      <c r="N77" s="53">
+      <c r="N77" s="48">
         <v>11.024999999999995</v>
       </c>
     </row>
-    <row r="78" spans="1:14">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" s="39"/>
       <c r="B78" s="28"/>
       <c r="C78" s="29">
@@ -4794,7 +4802,7 @@
         <v>3.7597330367074529E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:14">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>62</v>
       </c>
@@ -4808,7 +4816,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="80" spans="1:14">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>14</v>
       </c>
@@ -4830,7 +4838,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:12">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
         <v>27</v>
       </c>
@@ -4852,7 +4860,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="82" spans="1:12">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H82" t="s">
         <v>18</v>
       </c>
@@ -4863,12 +4871,12 @@
         <v>10.36</v>
       </c>
     </row>
-    <row r="83" spans="1:12">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="84" spans="1:12">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>59</v>
       </c>
@@ -4876,7 +4884,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="85" spans="1:12">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>61</v>
       </c>
@@ -4884,24 +4892,24 @@
         <v>20</v>
       </c>
     </row>
-    <row r="86" spans="1:12">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>60</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="C11:L11"/>
+    <mergeCell ref="C12:L12"/>
+    <mergeCell ref="C13:L13"/>
     <mergeCell ref="C27:L27"/>
     <mergeCell ref="H29:M29"/>
     <mergeCell ref="C23:L24"/>
     <mergeCell ref="C14:L14"/>
     <mergeCell ref="C15:L15"/>
     <mergeCell ref="C25:L25"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="C11:L11"/>
-    <mergeCell ref="C12:L12"/>
-    <mergeCell ref="C13:L13"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.71" right="0.51" top="1.77" bottom="0.93685039370078704" header="0.08" footer="0"/>
@@ -4921,20 +4929,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>118</v>
       </c>
@@ -4951,7 +4959,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4962,14 +4970,14 @@
       <c r="C2" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="54" t="s">
+      <c r="D2" s="49" t="s">
         <v>123</v>
       </c>
       <c r="E2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4980,14 +4988,14 @@
       <c r="C3" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="54" t="s">
+      <c r="D3" s="49" t="s">
         <v>123</v>
       </c>
       <c r="E3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4998,14 +5006,14 @@
       <c r="C4" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="54" t="s">
+      <c r="D4" s="49" t="s">
         <v>123</v>
       </c>
       <c r="E4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5016,14 +5024,14 @@
       <c r="C5" t="s">
         <v>87</v>
       </c>
-      <c r="D5" s="54" t="s">
+      <c r="D5" s="49" t="s">
         <v>123</v>
       </c>
       <c r="E5" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5034,14 +5042,14 @@
       <c r="C6" t="s">
         <v>87</v>
       </c>
-      <c r="D6" s="54" t="s">
+      <c r="D6" s="49" t="s">
         <v>123</v>
       </c>
       <c r="E6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5059,7 +5067,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5077,7 +5085,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5095,7 +5103,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -5113,7 +5121,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -5131,7 +5139,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -5149,7 +5157,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -5167,7 +5175,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -5185,7 +5193,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -5203,7 +5211,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -5221,7 +5229,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -5232,14 +5240,14 @@
       <c r="C17" t="s">
         <v>127</v>
       </c>
-      <c r="D17" s="54" t="s">
+      <c r="D17" s="49" t="s">
         <v>123</v>
       </c>
       <c r="E17" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -5250,14 +5258,14 @@
       <c r="C18" t="s">
         <v>127</v>
       </c>
-      <c r="D18" s="54" t="s">
+      <c r="D18" s="49" t="s">
         <v>123</v>
       </c>
       <c r="E18" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -5268,14 +5276,14 @@
       <c r="C19" t="s">
         <v>127</v>
       </c>
-      <c r="D19" s="54" t="s">
+      <c r="D19" s="49" t="s">
         <v>123</v>
       </c>
       <c r="E19" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -5286,14 +5294,14 @@
       <c r="C20" t="s">
         <v>127</v>
       </c>
-      <c r="D20" s="54" t="s">
+      <c r="D20" s="49" t="s">
         <v>123</v>
       </c>
       <c r="E20" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -5304,14 +5312,14 @@
       <c r="C21" t="s">
         <v>127</v>
       </c>
-      <c r="D21" s="54" t="s">
+      <c r="D21" s="49" t="s">
         <v>123</v>
       </c>
       <c r="E21" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -5329,7 +5337,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -5347,7 +5355,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -5365,7 +5373,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -5383,7 +5391,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -5401,7 +5409,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -5419,7 +5427,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -5437,7 +5445,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -5455,7 +5463,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -5473,7 +5481,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -5491,7 +5499,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -5502,14 +5510,14 @@
       <c r="C32" t="s">
         <v>88</v>
       </c>
-      <c r="D32" s="54" t="s">
+      <c r="D32" s="49" t="s">
         <v>123</v>
       </c>
       <c r="E32" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -5520,14 +5528,14 @@
       <c r="C33" t="s">
         <v>88</v>
       </c>
-      <c r="D33" s="54" t="s">
+      <c r="D33" s="49" t="s">
         <v>123</v>
       </c>
       <c r="E33" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -5538,14 +5546,14 @@
       <c r="C34" t="s">
         <v>88</v>
       </c>
-      <c r="D34" s="54" t="s">
+      <c r="D34" s="49" t="s">
         <v>123</v>
       </c>
       <c r="E34" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -5556,14 +5564,14 @@
       <c r="C35" t="s">
         <v>88</v>
       </c>
-      <c r="D35" s="54" t="s">
+      <c r="D35" s="49" t="s">
         <v>123</v>
       </c>
       <c r="E35" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -5574,14 +5582,14 @@
       <c r="C36" t="s">
         <v>88</v>
       </c>
-      <c r="D36" s="54" t="s">
+      <c r="D36" s="49" t="s">
         <v>123</v>
       </c>
       <c r="E36" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -5599,7 +5607,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -5617,7 +5625,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -5635,7 +5643,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -5653,7 +5661,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -5671,7 +5679,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -5689,7 +5697,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -5707,7 +5715,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -5725,7 +5733,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -5743,7 +5751,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -5761,7 +5769,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -5772,14 +5780,14 @@
       <c r="C47" t="s">
         <v>128</v>
       </c>
-      <c r="D47" s="54" t="s">
+      <c r="D47" s="49" t="s">
         <v>123</v>
       </c>
       <c r="E47" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -5790,14 +5798,14 @@
       <c r="C48" t="s">
         <v>128</v>
       </c>
-      <c r="D48" s="54" t="s">
+      <c r="D48" s="49" t="s">
         <v>123</v>
       </c>
       <c r="E48" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -5808,14 +5816,14 @@
       <c r="C49" t="s">
         <v>128</v>
       </c>
-      <c r="D49" s="54" t="s">
+      <c r="D49" s="49" t="s">
         <v>123</v>
       </c>
       <c r="E49" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -5826,14 +5834,14 @@
       <c r="C50" t="s">
         <v>128</v>
       </c>
-      <c r="D50" s="54" t="s">
+      <c r="D50" s="49" t="s">
         <v>123</v>
       </c>
       <c r="E50" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -5844,14 +5852,14 @@
       <c r="C51" t="s">
         <v>128</v>
       </c>
-      <c r="D51" s="54" t="s">
+      <c r="D51" s="49" t="s">
         <v>123</v>
       </c>
       <c r="E51" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -5869,7 +5877,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -5887,7 +5895,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -5905,7 +5913,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -5923,7 +5931,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -5941,7 +5949,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -5959,7 +5967,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -5977,7 +5985,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -5995,7 +6003,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -6013,7 +6021,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -6031,7 +6039,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -6042,14 +6050,14 @@
       <c r="C62" t="s">
         <v>129</v>
       </c>
-      <c r="D62" s="54" t="s">
+      <c r="D62" s="49" t="s">
         <v>123</v>
       </c>
       <c r="E62" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -6060,14 +6068,14 @@
       <c r="C63" t="s">
         <v>129</v>
       </c>
-      <c r="D63" s="54" t="s">
+      <c r="D63" s="49" t="s">
         <v>123</v>
       </c>
       <c r="E63" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
@@ -6078,14 +6086,14 @@
       <c r="C64" t="s">
         <v>129</v>
       </c>
-      <c r="D64" s="54" t="s">
+      <c r="D64" s="49" t="s">
         <v>123</v>
       </c>
       <c r="E64" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
@@ -6096,14 +6104,14 @@
       <c r="C65" t="s">
         <v>129</v>
       </c>
-      <c r="D65" s="54" t="s">
+      <c r="D65" s="49" t="s">
         <v>123</v>
       </c>
       <c r="E65" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
@@ -6114,14 +6122,14 @@
       <c r="C66" t="s">
         <v>129</v>
       </c>
-      <c r="D66" s="54" t="s">
+      <c r="D66" s="49" t="s">
         <v>123</v>
       </c>
       <c r="E66" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
@@ -6139,7 +6147,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
@@ -6157,7 +6165,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
@@ -6175,7 +6183,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
@@ -6193,7 +6201,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
@@ -6211,7 +6219,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
@@ -6229,7 +6237,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
@@ -6247,7 +6255,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
@@ -6265,7 +6273,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
@@ -6283,7 +6291,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
@@ -6301,7 +6309,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
@@ -6312,14 +6320,14 @@
       <c r="C77" t="s">
         <v>89</v>
       </c>
-      <c r="D77" s="54" t="s">
+      <c r="D77" s="49" t="s">
         <v>123</v>
       </c>
       <c r="E77" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
@@ -6330,14 +6338,14 @@
       <c r="C78" t="s">
         <v>89</v>
       </c>
-      <c r="D78" s="54" t="s">
+      <c r="D78" s="49" t="s">
         <v>123</v>
       </c>
       <c r="E78" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
@@ -6348,14 +6356,14 @@
       <c r="C79" t="s">
         <v>89</v>
       </c>
-      <c r="D79" s="54" t="s">
+      <c r="D79" s="49" t="s">
         <v>123</v>
       </c>
       <c r="E79" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>79</v>
       </c>
@@ -6366,14 +6374,14 @@
       <c r="C80" t="s">
         <v>89</v>
       </c>
-      <c r="D80" s="54" t="s">
+      <c r="D80" s="49" t="s">
         <v>123</v>
       </c>
       <c r="E80" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
@@ -6384,14 +6392,14 @@
       <c r="C81" t="s">
         <v>89</v>
       </c>
-      <c r="D81" s="54" t="s">
+      <c r="D81" s="49" t="s">
         <v>123</v>
       </c>
       <c r="E81" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>81</v>
       </c>
@@ -6409,7 +6417,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
@@ -6427,7 +6435,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>83</v>
       </c>
@@ -6445,7 +6453,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>84</v>
       </c>
@@ -6463,7 +6471,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>85</v>
       </c>
@@ -6481,7 +6489,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>86</v>
       </c>
@@ -6499,7 +6507,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>87</v>
       </c>
@@ -6517,7 +6525,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
@@ -6535,7 +6543,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>89</v>
       </c>
@@ -6553,7 +6561,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
@@ -6571,7 +6579,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>91</v>
       </c>
@@ -6582,14 +6590,14 @@
       <c r="C92" t="s">
         <v>130</v>
       </c>
-      <c r="D92" s="54" t="s">
+      <c r="D92" s="49" t="s">
         <v>123</v>
       </c>
       <c r="E92" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>92</v>
       </c>
@@ -6600,14 +6608,14 @@
       <c r="C93" t="s">
         <v>130</v>
       </c>
-      <c r="D93" s="54" t="s">
+      <c r="D93" s="49" t="s">
         <v>123</v>
       </c>
       <c r="E93" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>93</v>
       </c>
@@ -6618,14 +6626,14 @@
       <c r="C94" t="s">
         <v>130</v>
       </c>
-      <c r="D94" s="54" t="s">
+      <c r="D94" s="49" t="s">
         <v>123</v>
       </c>
       <c r="E94" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>94</v>
       </c>
@@ -6636,14 +6644,14 @@
       <c r="C95" t="s">
         <v>130</v>
       </c>
-      <c r="D95" s="54" t="s">
+      <c r="D95" s="49" t="s">
         <v>123</v>
       </c>
       <c r="E95" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>95</v>
       </c>
@@ -6654,14 +6662,14 @@
       <c r="C96" t="s">
         <v>130</v>
       </c>
-      <c r="D96" s="54" t="s">
+      <c r="D96" s="49" t="s">
         <v>123</v>
       </c>
       <c r="E96" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>96</v>
       </c>
@@ -6679,7 +6687,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>97</v>
       </c>
@@ -6697,7 +6705,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>98</v>
       </c>
@@ -6715,7 +6723,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>99</v>
       </c>
@@ -6733,7 +6741,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>100</v>
       </c>
@@ -6751,7 +6759,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>101</v>
       </c>
@@ -6769,7 +6777,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>102</v>
       </c>
@@ -6787,7 +6795,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>103</v>
       </c>
@@ -6805,7 +6813,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>104</v>
       </c>
@@ -6823,7 +6831,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>105</v>
       </c>
@@ -6841,7 +6849,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>106</v>
       </c>
@@ -6852,14 +6860,14 @@
       <c r="C107" t="s">
         <v>132</v>
       </c>
-      <c r="D107" s="54" t="s">
+      <c r="D107" s="49" t="s">
         <v>123</v>
       </c>
       <c r="E107" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>107</v>
       </c>
@@ -6870,14 +6878,14 @@
       <c r="C108" t="s">
         <v>132</v>
       </c>
-      <c r="D108" s="54" t="s">
+      <c r="D108" s="49" t="s">
         <v>123</v>
       </c>
       <c r="E108" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>108</v>
       </c>
@@ -6888,14 +6896,14 @@
       <c r="C109" t="s">
         <v>132</v>
       </c>
-      <c r="D109" s="54" t="s">
+      <c r="D109" s="49" t="s">
         <v>123</v>
       </c>
       <c r="E109" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>109</v>
       </c>
@@ -6906,14 +6914,14 @@
       <c r="C110" t="s">
         <v>132</v>
       </c>
-      <c r="D110" s="54" t="s">
+      <c r="D110" s="49" t="s">
         <v>123</v>
       </c>
       <c r="E110" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>110</v>
       </c>
@@ -6924,14 +6932,14 @@
       <c r="C111" t="s">
         <v>132</v>
       </c>
-      <c r="D111" s="54" t="s">
+      <c r="D111" s="49" t="s">
         <v>123</v>
       </c>
       <c r="E111" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>111</v>
       </c>
@@ -6949,7 +6957,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>112</v>
       </c>
@@ -6967,7 +6975,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>113</v>
       </c>
@@ -6985,7 +6993,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>114</v>
       </c>
@@ -7003,7 +7011,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>115</v>
       </c>
@@ -7021,7 +7029,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>116</v>
       </c>
@@ -7039,7 +7047,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>117</v>
       </c>
@@ -7057,7 +7065,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>118</v>
       </c>
@@ -7075,7 +7083,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>119</v>
       </c>
@@ -7093,7 +7101,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>120</v>
       </c>
@@ -7111,7 +7119,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>121</v>
       </c>
@@ -7122,14 +7130,14 @@
       <c r="C122" t="s">
         <v>133</v>
       </c>
-      <c r="D122" s="54" t="s">
+      <c r="D122" s="49" t="s">
         <v>123</v>
       </c>
       <c r="E122" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>122</v>
       </c>
@@ -7140,14 +7148,14 @@
       <c r="C123" t="s">
         <v>133</v>
       </c>
-      <c r="D123" s="54" t="s">
+      <c r="D123" s="49" t="s">
         <v>123</v>
       </c>
       <c r="E123" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>123</v>
       </c>
@@ -7158,14 +7166,14 @@
       <c r="C124" t="s">
         <v>133</v>
       </c>
-      <c r="D124" s="54" t="s">
+      <c r="D124" s="49" t="s">
         <v>123</v>
       </c>
       <c r="E124" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>124</v>
       </c>
@@ -7176,14 +7184,14 @@
       <c r="C125" t="s">
         <v>133</v>
       </c>
-      <c r="D125" s="54" t="s">
+      <c r="D125" s="49" t="s">
         <v>123</v>
       </c>
       <c r="E125" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>125</v>
       </c>
@@ -7194,14 +7202,14 @@
       <c r="C126" t="s">
         <v>133</v>
       </c>
-      <c r="D126" s="54" t="s">
+      <c r="D126" s="49" t="s">
         <v>123</v>
       </c>
       <c r="E126" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>126</v>
       </c>
@@ -7219,7 +7227,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>127</v>
       </c>
@@ -7237,7 +7245,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>128</v>
       </c>
@@ -7255,7 +7263,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>129</v>
       </c>
@@ -7273,7 +7281,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>130</v>
       </c>
@@ -7291,7 +7299,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>131</v>
       </c>
@@ -7309,7 +7317,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>132</v>
       </c>
@@ -7327,7 +7335,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>133</v>
       </c>
@@ -7345,7 +7353,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>134</v>
       </c>
@@ -7363,7 +7371,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>135</v>
       </c>
@@ -7381,7 +7389,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>136</v>
       </c>
@@ -7392,14 +7400,14 @@
       <c r="C137" t="s">
         <v>134</v>
       </c>
-      <c r="D137" s="54" t="s">
+      <c r="D137" s="49" t="s">
         <v>123</v>
       </c>
       <c r="E137" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>137</v>
       </c>
@@ -7410,14 +7418,14 @@
       <c r="C138" t="s">
         <v>134</v>
       </c>
-      <c r="D138" s="54" t="s">
+      <c r="D138" s="49" t="s">
         <v>123</v>
       </c>
       <c r="E138" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>138</v>
       </c>
@@ -7428,14 +7436,14 @@
       <c r="C139" t="s">
         <v>134</v>
       </c>
-      <c r="D139" s="54" t="s">
+      <c r="D139" s="49" t="s">
         <v>123</v>
       </c>
       <c r="E139" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>139</v>
       </c>
@@ -7446,14 +7454,14 @@
       <c r="C140" t="s">
         <v>134</v>
       </c>
-      <c r="D140" s="54" t="s">
+      <c r="D140" s="49" t="s">
         <v>123</v>
       </c>
       <c r="E140" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>140</v>
       </c>
@@ -7464,14 +7472,14 @@
       <c r="C141" t="s">
         <v>134</v>
       </c>
-      <c r="D141" s="54" t="s">
+      <c r="D141" s="49" t="s">
         <v>123</v>
       </c>
       <c r="E141" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>141</v>
       </c>
@@ -7489,7 +7497,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>142</v>
       </c>
@@ -7507,7 +7515,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>143</v>
       </c>
@@ -7525,7 +7533,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>144</v>
       </c>
@@ -7543,7 +7551,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>145</v>
       </c>
@@ -7561,7 +7569,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>146</v>
       </c>
@@ -7579,7 +7587,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>147</v>
       </c>
@@ -7597,7 +7605,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>148</v>
       </c>
@@ -7615,7 +7623,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>149</v>
       </c>
@@ -7633,7 +7641,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>150</v>
       </c>
@@ -7651,7 +7659,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>151</v>
       </c>
@@ -7662,14 +7670,14 @@
       <c r="C152" t="s">
         <v>135</v>
       </c>
-      <c r="D152" s="54" t="s">
+      <c r="D152" s="49" t="s">
         <v>123</v>
       </c>
       <c r="E152" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="153" spans="1:5">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>152</v>
       </c>
@@ -7680,14 +7688,14 @@
       <c r="C153" t="s">
         <v>135</v>
       </c>
-      <c r="D153" s="54" t="s">
+      <c r="D153" s="49" t="s">
         <v>123</v>
       </c>
       <c r="E153" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>153</v>
       </c>
@@ -7698,14 +7706,14 @@
       <c r="C154" t="s">
         <v>135</v>
       </c>
-      <c r="D154" s="54" t="s">
+      <c r="D154" s="49" t="s">
         <v>123</v>
       </c>
       <c r="E154" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>154</v>
       </c>
@@ -7716,14 +7724,14 @@
       <c r="C155" t="s">
         <v>135</v>
       </c>
-      <c r="D155" s="54" t="s">
+      <c r="D155" s="49" t="s">
         <v>123</v>
       </c>
       <c r="E155" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>155</v>
       </c>
@@ -7734,14 +7742,14 @@
       <c r="C156" t="s">
         <v>135</v>
       </c>
-      <c r="D156" s="54" t="s">
+      <c r="D156" s="49" t="s">
         <v>123</v>
       </c>
       <c r="E156" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>156</v>
       </c>
@@ -7759,7 +7767,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>157</v>
       </c>
@@ -7777,7 +7785,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>158</v>
       </c>
@@ -7795,7 +7803,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>159</v>
       </c>
@@ -7813,7 +7821,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>160</v>
       </c>
@@ -7831,7 +7839,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>161</v>
       </c>
@@ -7849,7 +7857,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>162</v>
       </c>
@@ -7867,7 +7875,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="164" spans="1:5">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>163</v>
       </c>
@@ -7885,7 +7893,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>164</v>
       </c>
@@ -7903,7 +7911,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>165</v>
       </c>
@@ -7921,7 +7929,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>166</v>
       </c>
@@ -7932,14 +7940,14 @@
       <c r="C167" t="s">
         <v>136</v>
       </c>
-      <c r="D167" s="54" t="s">
+      <c r="D167" s="49" t="s">
         <v>123</v>
       </c>
       <c r="E167" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>167</v>
       </c>
@@ -7950,14 +7958,14 @@
       <c r="C168" t="s">
         <v>136</v>
       </c>
-      <c r="D168" s="54" t="s">
+      <c r="D168" s="49" t="s">
         <v>123</v>
       </c>
       <c r="E168" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>168</v>
       </c>
@@ -7968,14 +7976,14 @@
       <c r="C169" t="s">
         <v>136</v>
       </c>
-      <c r="D169" s="54" t="s">
+      <c r="D169" s="49" t="s">
         <v>123</v>
       </c>
       <c r="E169" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>169</v>
       </c>
@@ -7986,14 +7994,14 @@
       <c r="C170" t="s">
         <v>136</v>
       </c>
-      <c r="D170" s="54" t="s">
+      <c r="D170" s="49" t="s">
         <v>123</v>
       </c>
       <c r="E170" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>170</v>
       </c>
@@ -8004,14 +8012,14 @@
       <c r="C171" t="s">
         <v>136</v>
       </c>
-      <c r="D171" s="54" t="s">
+      <c r="D171" s="49" t="s">
         <v>123</v>
       </c>
       <c r="E171" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>171</v>
       </c>
@@ -8029,7 +8037,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>172</v>
       </c>
@@ -8047,7 +8055,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>173</v>
       </c>
@@ -8065,7 +8073,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>174</v>
       </c>
@@ -8083,7 +8091,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>175</v>
       </c>
@@ -8101,7 +8109,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>176</v>
       </c>
@@ -8119,7 +8127,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>177</v>
       </c>
@@ -8137,7 +8145,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>178</v>
       </c>
@@ -8155,7 +8163,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>179</v>
       </c>
@@ -8173,7 +8181,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>180</v>
       </c>
@@ -8204,14 +8212,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.33203125" customWidth="1"/>
@@ -8223,7 +8231,7 @@
     <col min="8" max="8" width="5.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -8249,7 +8257,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>143</v>
       </c>
@@ -8276,7 +8284,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>143</v>
       </c>
@@ -8303,7 +8311,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>143</v>
       </c>
@@ -8330,7 +8338,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>143</v>
       </c>
@@ -8357,7 +8365,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>143</v>
       </c>
@@ -8384,7 +8392,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>143</v>
       </c>
@@ -8411,7 +8419,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>143</v>
       </c>
@@ -8438,7 +8446,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>143</v>
       </c>
@@ -8465,7 +8473,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>143</v>
       </c>
@@ -8492,7 +8500,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>143</v>
       </c>
@@ -8519,7 +8527,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>143</v>
       </c>
@@ -8546,7 +8554,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>143</v>
       </c>
@@ -8573,7 +8581,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>143</v>
       </c>
@@ -8600,7 +8608,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>143</v>
       </c>
@@ -8627,14 +8635,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15">
-      <c r="A16" s="55" t="s">
+    <row r="16" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="B16" s="55" t="s">
+      <c r="B16" s="50" t="s">
         <v>145</v>
       </c>
-      <c r="C16" s="55" t="s">
+      <c r="C16" s="50" t="s">
         <v>126</v>
       </c>
       <c r="D16">
@@ -8654,7 +8662,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>146</v>
       </c>
@@ -8681,7 +8689,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>146</v>
       </c>
@@ -8708,7 +8716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>146</v>
       </c>
@@ -8735,7 +8743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>146</v>
       </c>
@@ -8762,7 +8770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>146</v>
       </c>
@@ -8789,7 +8797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>146</v>
       </c>
@@ -8816,7 +8824,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>146</v>
       </c>
@@ -8843,7 +8851,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>146</v>
       </c>
@@ -8870,7 +8878,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>146</v>
       </c>
@@ -8897,7 +8905,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>146</v>
       </c>
@@ -8924,7 +8932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>146</v>
       </c>
@@ -8951,7 +8959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>146</v>
       </c>
@@ -8978,7 +8986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>146</v>
       </c>
@@ -9005,7 +9013,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>146</v>
       </c>
@@ -9032,7 +9040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>146</v>
       </c>
@@ -9059,7 +9067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>147</v>
       </c>
@@ -9086,7 +9094,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>147</v>
       </c>
@@ -9113,7 +9121,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>147</v>
       </c>
@@ -9140,7 +9148,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>147</v>
       </c>
@@ -9167,7 +9175,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>147</v>
       </c>
@@ -9194,7 +9202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>147</v>
       </c>
@@ -9221,7 +9229,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>147</v>
       </c>
@@ -9248,7 +9256,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>147</v>
       </c>
@@ -9275,7 +9283,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>147</v>
       </c>
@@ -9302,7 +9310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>147</v>
       </c>
@@ -9329,7 +9337,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>147</v>
       </c>
@@ -9356,7 +9364,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>147</v>
       </c>
@@ -9383,7 +9391,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>147</v>
       </c>
@@ -9410,7 +9418,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>147</v>
       </c>
@@ -9437,7 +9445,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>147</v>
       </c>
@@ -9464,14 +9472,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="15">
+    <row r="47" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>148</v>
       </c>
-      <c r="B47" s="55" t="s">
-        <v>123</v>
-      </c>
-      <c r="C47" s="55" t="s">
+      <c r="B47" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="C47" s="50" t="s">
         <v>123</v>
       </c>
       <c r="D47">
@@ -9491,14 +9499,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="15">
+    <row r="48" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>148</v>
       </c>
-      <c r="B48" s="55" t="s">
-        <v>123</v>
-      </c>
-      <c r="C48" s="55" t="s">
+      <c r="B48" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="C48" s="50" t="s">
         <v>125</v>
       </c>
       <c r="D48">
@@ -9518,14 +9526,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="15">
+    <row r="49" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>148</v>
       </c>
-      <c r="B49" s="55" t="s">
-        <v>123</v>
-      </c>
-      <c r="C49" s="55" t="s">
+      <c r="B49" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="C49" s="50" t="s">
         <v>126</v>
       </c>
       <c r="D49">
@@ -9545,14 +9553,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="15">
+    <row r="50" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>148</v>
       </c>
-      <c r="B50" s="55" t="s">
-        <v>125</v>
-      </c>
-      <c r="C50" s="55" t="s">
+      <c r="B50" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="C50" s="50" t="s">
         <v>123</v>
       </c>
       <c r="D50">
@@ -9572,14 +9580,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="15">
+    <row r="51" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>148</v>
       </c>
-      <c r="B51" s="55" t="s">
-        <v>125</v>
-      </c>
-      <c r="C51" s="55" t="s">
+      <c r="B51" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="C51" s="50" t="s">
         <v>125</v>
       </c>
       <c r="D51">
@@ -9599,14 +9607,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="15">
+    <row r="52" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>148</v>
       </c>
-      <c r="B52" s="55" t="s">
-        <v>125</v>
-      </c>
-      <c r="C52" s="55" t="s">
+      <c r="B52" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="C52" s="50" t="s">
         <v>126</v>
       </c>
       <c r="D52">
@@ -9626,14 +9634,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="15">
+    <row r="53" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>148</v>
       </c>
-      <c r="B53" s="55" t="s">
-        <v>126</v>
-      </c>
-      <c r="C53" s="55" t="s">
+      <c r="B53" s="50" t="s">
+        <v>126</v>
+      </c>
+      <c r="C53" s="50" t="s">
         <v>123</v>
       </c>
       <c r="D53">
@@ -9653,14 +9661,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="15">
+    <row r="54" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>148</v>
       </c>
-      <c r="B54" s="55" t="s">
-        <v>126</v>
-      </c>
-      <c r="C54" s="55" t="s">
+      <c r="B54" s="50" t="s">
+        <v>126</v>
+      </c>
+      <c r="C54" s="50" t="s">
         <v>125</v>
       </c>
       <c r="D54">
@@ -9680,14 +9688,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="15">
+    <row r="55" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>148</v>
       </c>
-      <c r="B55" s="55" t="s">
-        <v>126</v>
-      </c>
-      <c r="C55" s="55" t="s">
+      <c r="B55" s="50" t="s">
+        <v>126</v>
+      </c>
+      <c r="C55" s="50" t="s">
         <v>126</v>
       </c>
       <c r="D55">
@@ -9707,14 +9715,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="15">
+    <row r="56" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>148</v>
       </c>
-      <c r="B56" s="55" t="s">
+      <c r="B56" s="50" t="s">
         <v>144</v>
       </c>
-      <c r="C56" s="55" t="s">
+      <c r="C56" s="50" t="s">
         <v>123</v>
       </c>
       <c r="D56">
@@ -9734,14 +9742,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="15">
+    <row r="57" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>148</v>
       </c>
-      <c r="B57" s="55" t="s">
+      <c r="B57" s="50" t="s">
         <v>144</v>
       </c>
-      <c r="C57" s="55" t="s">
+      <c r="C57" s="50" t="s">
         <v>125</v>
       </c>
       <c r="D57">
@@ -9761,14 +9769,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="15">
+    <row r="58" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>148</v>
       </c>
-      <c r="B58" s="55" t="s">
+      <c r="B58" s="50" t="s">
         <v>144</v>
       </c>
-      <c r="C58" s="55" t="s">
+      <c r="C58" s="50" t="s">
         <v>126</v>
       </c>
       <c r="D58">
@@ -9788,14 +9796,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="15">
+    <row r="59" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>148</v>
       </c>
-      <c r="B59" s="55" t="s">
+      <c r="B59" s="50" t="s">
         <v>145</v>
       </c>
-      <c r="C59" s="55" t="s">
+      <c r="C59" s="50" t="s">
         <v>123</v>
       </c>
       <c r="D59">
@@ -9815,14 +9823,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="15">
+    <row r="60" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>148</v>
       </c>
-      <c r="B60" s="55" t="s">
+      <c r="B60" s="50" t="s">
         <v>145</v>
       </c>
-      <c r="C60" s="55" t="s">
+      <c r="C60" s="50" t="s">
         <v>125</v>
       </c>
       <c r="D60">
@@ -9842,14 +9850,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="15">
+    <row r="61" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>148</v>
       </c>
-      <c r="B61" s="55" t="s">
+      <c r="B61" s="50" t="s">
         <v>145</v>
       </c>
-      <c r="C61" s="55" t="s">
+      <c r="C61" s="50" t="s">
         <v>126</v>
       </c>
       <c r="D61">
@@ -9869,14 +9877,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="15">
+    <row r="62" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>149</v>
       </c>
-      <c r="B62" s="55" t="s">
-        <v>123</v>
-      </c>
-      <c r="C62" s="55" t="s">
+      <c r="B62" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="C62" s="50" t="s">
         <v>123</v>
       </c>
       <c r="D62">
@@ -9896,14 +9904,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="15">
+    <row r="63" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>149</v>
       </c>
-      <c r="B63" s="55" t="s">
-        <v>123</v>
-      </c>
-      <c r="C63" s="55" t="s">
+      <c r="B63" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="C63" s="50" t="s">
         <v>125</v>
       </c>
       <c r="D63">
@@ -9923,14 +9931,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="15">
+    <row r="64" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>149</v>
       </c>
-      <c r="B64" s="55" t="s">
-        <v>123</v>
-      </c>
-      <c r="C64" s="55" t="s">
+      <c r="B64" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="C64" s="50" t="s">
         <v>126</v>
       </c>
       <c r="D64">
@@ -9950,14 +9958,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="15">
+    <row r="65" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>149</v>
       </c>
-      <c r="B65" s="55" t="s">
-        <v>125</v>
-      </c>
-      <c r="C65" s="55" t="s">
+      <c r="B65" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="C65" s="50" t="s">
         <v>123</v>
       </c>
       <c r="D65">
@@ -9977,14 +9985,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="15">
+    <row r="66" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>149</v>
       </c>
-      <c r="B66" s="55" t="s">
-        <v>125</v>
-      </c>
-      <c r="C66" s="55" t="s">
+      <c r="B66" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="C66" s="50" t="s">
         <v>125</v>
       </c>
       <c r="D66">
@@ -10004,14 +10012,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="15">
+    <row r="67" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>149</v>
       </c>
-      <c r="B67" s="55" t="s">
-        <v>125</v>
-      </c>
-      <c r="C67" s="55" t="s">
+      <c r="B67" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="C67" s="50" t="s">
         <v>126</v>
       </c>
       <c r="D67">
@@ -10031,14 +10039,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="15">
+    <row r="68" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>149</v>
       </c>
-      <c r="B68" s="55" t="s">
-        <v>126</v>
-      </c>
-      <c r="C68" s="55" t="s">
+      <c r="B68" s="50" t="s">
+        <v>126</v>
+      </c>
+      <c r="C68" s="50" t="s">
         <v>123</v>
       </c>
       <c r="D68">
@@ -10058,14 +10066,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="15">
+    <row r="69" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>149</v>
       </c>
-      <c r="B69" s="55" t="s">
-        <v>126</v>
-      </c>
-      <c r="C69" s="55" t="s">
+      <c r="B69" s="50" t="s">
+        <v>126</v>
+      </c>
+      <c r="C69" s="50" t="s">
         <v>125</v>
       </c>
       <c r="D69">
@@ -10085,14 +10093,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="15">
+    <row r="70" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>149</v>
       </c>
-      <c r="B70" s="55" t="s">
-        <v>126</v>
-      </c>
-      <c r="C70" s="55" t="s">
+      <c r="B70" s="50" t="s">
+        <v>126</v>
+      </c>
+      <c r="C70" s="50" t="s">
         <v>126</v>
       </c>
       <c r="D70">
@@ -10112,14 +10120,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="15">
+    <row r="71" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>149</v>
       </c>
-      <c r="B71" s="55" t="s">
+      <c r="B71" s="50" t="s">
         <v>144</v>
       </c>
-      <c r="C71" s="55" t="s">
+      <c r="C71" s="50" t="s">
         <v>123</v>
       </c>
       <c r="D71">
@@ -10139,14 +10147,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="15">
+    <row r="72" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>149</v>
       </c>
-      <c r="B72" s="55" t="s">
+      <c r="B72" s="50" t="s">
         <v>144</v>
       </c>
-      <c r="C72" s="55" t="s">
+      <c r="C72" s="50" t="s">
         <v>125</v>
       </c>
       <c r="D72">
@@ -10166,14 +10174,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="15">
+    <row r="73" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>149</v>
       </c>
-      <c r="B73" s="55" t="s">
+      <c r="B73" s="50" t="s">
         <v>144</v>
       </c>
-      <c r="C73" s="55" t="s">
+      <c r="C73" s="50" t="s">
         <v>126</v>
       </c>
       <c r="D73">
@@ -10193,14 +10201,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="15">
+    <row r="74" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>149</v>
       </c>
-      <c r="B74" s="55" t="s">
+      <c r="B74" s="50" t="s">
         <v>145</v>
       </c>
-      <c r="C74" s="55" t="s">
+      <c r="C74" s="50" t="s">
         <v>123</v>
       </c>
       <c r="D74">
@@ -10220,14 +10228,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="15">
+    <row r="75" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>149</v>
       </c>
-      <c r="B75" s="55" t="s">
+      <c r="B75" s="50" t="s">
         <v>145</v>
       </c>
-      <c r="C75" s="55" t="s">
+      <c r="C75" s="50" t="s">
         <v>125</v>
       </c>
       <c r="D75">
@@ -10247,14 +10255,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="15">
+    <row r="76" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>149</v>
       </c>
-      <c r="B76" s="55" t="s">
+      <c r="B76" s="50" t="s">
         <v>145</v>
       </c>
-      <c r="C76" s="55" t="s">
+      <c r="C76" s="50" t="s">
         <v>126</v>
       </c>
       <c r="D76">
@@ -10274,14 +10282,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="15">
+    <row r="77" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>150</v>
       </c>
-      <c r="B77" s="55" t="s">
-        <v>123</v>
-      </c>
-      <c r="C77" s="55" t="s">
+      <c r="B77" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="C77" s="50" t="s">
         <v>123</v>
       </c>
       <c r="D77">
@@ -10301,14 +10309,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="15">
+    <row r="78" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>150</v>
       </c>
-      <c r="B78" s="55" t="s">
-        <v>123</v>
-      </c>
-      <c r="C78" s="55" t="s">
+      <c r="B78" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="C78" s="50" t="s">
         <v>125</v>
       </c>
       <c r="D78">
@@ -10328,14 +10336,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="15">
+    <row r="79" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>150</v>
       </c>
-      <c r="B79" s="55" t="s">
-        <v>123</v>
-      </c>
-      <c r="C79" s="55" t="s">
+      <c r="B79" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="C79" s="50" t="s">
         <v>126</v>
       </c>
       <c r="D79">
@@ -10355,14 +10363,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="15">
+    <row r="80" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>150</v>
       </c>
-      <c r="B80" s="55" t="s">
-        <v>125</v>
-      </c>
-      <c r="C80" s="55" t="s">
+      <c r="B80" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="C80" s="50" t="s">
         <v>123</v>
       </c>
       <c r="D80">
@@ -10382,14 +10390,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15">
+    <row r="81" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>150</v>
       </c>
-      <c r="B81" s="55" t="s">
-        <v>125</v>
-      </c>
-      <c r="C81" s="55" t="s">
+      <c r="B81" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="C81" s="50" t="s">
         <v>125</v>
       </c>
       <c r="D81">
@@ -10409,14 +10417,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15">
+    <row r="82" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>150</v>
       </c>
-      <c r="B82" s="55" t="s">
-        <v>125</v>
-      </c>
-      <c r="C82" s="55" t="s">
+      <c r="B82" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="C82" s="50" t="s">
         <v>126</v>
       </c>
       <c r="D82">
@@ -10436,14 +10444,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15">
+    <row r="83" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>150</v>
       </c>
-      <c r="B83" s="55" t="s">
-        <v>126</v>
-      </c>
-      <c r="C83" s="55" t="s">
+      <c r="B83" s="50" t="s">
+        <v>126</v>
+      </c>
+      <c r="C83" s="50" t="s">
         <v>123</v>
       </c>
       <c r="D83">
@@ -10463,14 +10471,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="15">
+    <row r="84" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>150</v>
       </c>
-      <c r="B84" s="55" t="s">
-        <v>126</v>
-      </c>
-      <c r="C84" s="55" t="s">
+      <c r="B84" s="50" t="s">
+        <v>126</v>
+      </c>
+      <c r="C84" s="50" t="s">
         <v>125</v>
       </c>
       <c r="D84">
@@ -10490,14 +10498,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15">
+    <row r="85" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>150</v>
       </c>
-      <c r="B85" s="55" t="s">
-        <v>126</v>
-      </c>
-      <c r="C85" s="55" t="s">
+      <c r="B85" s="50" t="s">
+        <v>126</v>
+      </c>
+      <c r="C85" s="50" t="s">
         <v>126</v>
       </c>
       <c r="D85">
@@ -10517,14 +10525,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="15">
+    <row r="86" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>150</v>
       </c>
-      <c r="B86" s="55" t="s">
+      <c r="B86" s="50" t="s">
         <v>144</v>
       </c>
-      <c r="C86" s="55" t="s">
+      <c r="C86" s="50" t="s">
         <v>123</v>
       </c>
       <c r="D86">
@@ -10544,14 +10552,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="15">
+    <row r="87" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>150</v>
       </c>
-      <c r="B87" s="55" t="s">
+      <c r="B87" s="50" t="s">
         <v>144</v>
       </c>
-      <c r="C87" s="55" t="s">
+      <c r="C87" s="50" t="s">
         <v>125</v>
       </c>
       <c r="D87">
@@ -10571,14 +10579,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="15">
+    <row r="88" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>150</v>
       </c>
-      <c r="B88" s="55" t="s">
+      <c r="B88" s="50" t="s">
         <v>144</v>
       </c>
-      <c r="C88" s="55" t="s">
+      <c r="C88" s="50" t="s">
         <v>126</v>
       </c>
       <c r="D88">
@@ -10598,14 +10606,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="15">
+    <row r="89" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>150</v>
       </c>
-      <c r="B89" s="55" t="s">
+      <c r="B89" s="50" t="s">
         <v>145</v>
       </c>
-      <c r="C89" s="55" t="s">
+      <c r="C89" s="50" t="s">
         <v>123</v>
       </c>
       <c r="D89">
@@ -10625,14 +10633,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="15">
+    <row r="90" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>150</v>
       </c>
-      <c r="B90" s="55" t="s">
+      <c r="B90" s="50" t="s">
         <v>145</v>
       </c>
-      <c r="C90" s="55" t="s">
+      <c r="C90" s="50" t="s">
         <v>125</v>
       </c>
       <c r="D90">
@@ -10652,14 +10660,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="15">
+    <row r="91" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>150</v>
       </c>
-      <c r="B91" s="55" t="s">
+      <c r="B91" s="50" t="s">
         <v>145</v>
       </c>
-      <c r="C91" s="55" t="s">
+      <c r="C91" s="50" t="s">
         <v>126</v>
       </c>
       <c r="D91">
@@ -10679,7 +10687,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>151</v>
       </c>
@@ -10706,7 +10714,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>151</v>
       </c>
@@ -10733,7 +10741,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>151</v>
       </c>
@@ -10760,7 +10768,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>151</v>
       </c>
@@ -10787,7 +10795,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>151</v>
       </c>
@@ -10814,7 +10822,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>151</v>
       </c>
@@ -10841,7 +10849,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>151</v>
       </c>
@@ -10868,7 +10876,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>151</v>
       </c>
@@ -10895,7 +10903,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>151</v>
       </c>
@@ -10922,7 +10930,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>151</v>
       </c>
@@ -10949,7 +10957,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>151</v>
       </c>
@@ -10976,7 +10984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>151</v>
       </c>
@@ -11003,7 +11011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>151</v>
       </c>
@@ -11030,7 +11038,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>151</v>
       </c>
@@ -11057,7 +11065,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>151</v>
       </c>
@@ -11084,7 +11092,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>94</v>
       </c>
@@ -11111,7 +11119,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>94</v>
       </c>
@@ -11138,7 +11146,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>94</v>
       </c>
@@ -11165,7 +11173,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>94</v>
       </c>
@@ -11192,7 +11200,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>94</v>
       </c>
@@ -11219,7 +11227,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>94</v>
       </c>
@@ -11246,7 +11254,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>94</v>
       </c>
@@ -11273,7 +11281,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>94</v>
       </c>
@@ -11300,7 +11308,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>94</v>
       </c>
@@ -11327,7 +11335,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>94</v>
       </c>
@@ -11354,7 +11362,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>94</v>
       </c>
@@ -11381,7 +11389,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>94</v>
       </c>
@@ -11408,7 +11416,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>94</v>
       </c>
@@ -11435,7 +11443,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>94</v>
       </c>
@@ -11462,7 +11470,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>94</v>
       </c>
@@ -11489,7 +11497,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>152</v>
       </c>
@@ -11516,7 +11524,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>152</v>
       </c>
@@ -11543,7 +11551,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>152</v>
       </c>
@@ -11570,7 +11578,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>152</v>
       </c>
@@ -11597,7 +11605,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>152</v>
       </c>
@@ -11624,7 +11632,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>152</v>
       </c>
@@ -11651,7 +11659,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>152</v>
       </c>
@@ -11678,7 +11686,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>152</v>
       </c>
@@ -11705,7 +11713,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>152</v>
       </c>
@@ -11732,7 +11740,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>152</v>
       </c>
@@ -11759,7 +11767,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>152</v>
       </c>
@@ -11786,7 +11794,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>152</v>
       </c>
@@ -11813,7 +11821,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>152</v>
       </c>
@@ -11840,7 +11848,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>152</v>
       </c>
@@ -11867,7 +11875,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>152</v>
       </c>
@@ -11894,7 +11902,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>95</v>
       </c>
@@ -11921,7 +11929,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>95</v>
       </c>
@@ -11948,7 +11956,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>95</v>
       </c>
@@ -11975,7 +11983,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>95</v>
       </c>
@@ -12002,7 +12010,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>95</v>
       </c>
@@ -12029,7 +12037,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>95</v>
       </c>
@@ -12056,7 +12064,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>95</v>
       </c>
@@ -12083,7 +12091,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>95</v>
       </c>
@@ -12110,7 +12118,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="145" spans="1:8">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>95</v>
       </c>
@@ -12137,7 +12145,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="146" spans="1:8">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>95</v>
       </c>
@@ -12164,7 +12172,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>95</v>
       </c>
@@ -12191,7 +12199,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>95</v>
       </c>
@@ -12218,7 +12226,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>95</v>
       </c>
@@ -12245,7 +12253,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="150" spans="1:8">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>95</v>
       </c>
@@ -12272,7 +12280,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>95</v>
       </c>
@@ -12299,7 +12307,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>153</v>
       </c>
@@ -12326,7 +12334,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>153</v>
       </c>
@@ -12353,7 +12361,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="154" spans="1:8">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>153</v>
       </c>
@@ -12380,7 +12388,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="155" spans="1:8">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>153</v>
       </c>
@@ -12407,7 +12415,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="156" spans="1:8">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>153</v>
       </c>
@@ -12434,7 +12442,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="157" spans="1:8">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>153</v>
       </c>
@@ -12461,7 +12469,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>153</v>
       </c>
@@ -12488,7 +12496,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="159" spans="1:8">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>153</v>
       </c>
@@ -12515,7 +12523,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="160" spans="1:8">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>153</v>
       </c>
@@ -12542,7 +12550,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="161" spans="1:8">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>153</v>
       </c>
@@ -12569,7 +12577,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="162" spans="1:8">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>153</v>
       </c>
@@ -12596,7 +12604,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="163" spans="1:8">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>153</v>
       </c>
@@ -12623,7 +12631,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>153</v>
       </c>
@@ -12650,7 +12658,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>153</v>
       </c>
@@ -12677,7 +12685,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="166" spans="1:8">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>153</v>
       </c>
@@ -12704,7 +12712,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="167" spans="1:8">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>93</v>
       </c>
@@ -12731,7 +12739,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>93</v>
       </c>
@@ -12758,7 +12766,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>93</v>
       </c>
@@ -12785,7 +12793,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="170" spans="1:8">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>93</v>
       </c>
@@ -12812,7 +12820,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="171" spans="1:8">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>93</v>
       </c>
@@ -12839,7 +12847,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="172" spans="1:8">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>93</v>
       </c>
@@ -12866,7 +12874,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="173" spans="1:8">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>93</v>
       </c>
@@ -12893,7 +12901,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="174" spans="1:8">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>93</v>
       </c>
@@ -12920,7 +12928,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="175" spans="1:8">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>93</v>
       </c>
@@ -12947,7 +12955,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>93</v>
       </c>
@@ -12974,7 +12982,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="177" spans="1:8">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>93</v>
       </c>
@@ -13001,7 +13009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:8">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>93</v>
       </c>
@@ -13028,7 +13036,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:8">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>93</v>
       </c>
@@ -13055,7 +13063,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="180" spans="1:8">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>93</v>
       </c>
@@ -13082,7 +13090,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="181" spans="1:8">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>93</v>
       </c>

--- a/data/metadata_soil_roots.xlsx
+++ b/data/metadata_soil_roots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ana/Google Drive/Ana+Camille/juniperus_project/juniperus_paper/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F306F42C-EE31-3447-B4DA-CD18A06D0E5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC20412-BD9D-F44C-9039-56B430F93339}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -619,11 +619,13 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -916,6 +918,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -924,12 +932,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="97">
@@ -2658,30 +2660,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="G3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="55">
+      <c r="H3" s="52">
         <v>43931</v>
       </c>
-      <c r="I3" s="55"/>
+      <c r="I3" s="52"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="G4" s="4" t="s">
@@ -2759,81 +2761,81 @@
       <c r="A11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="51" t="s">
+      <c r="C11" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="51"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
       <c r="M11" s="3"/>
       <c r="N11" s="44"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C12" s="51" t="s">
+      <c r="C12" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="51"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="53"/>
       <c r="M12" s="3"/>
       <c r="N12" s="44"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C13" s="51" t="s">
+      <c r="C13" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="51"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="53"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="51" t="s">
+      <c r="C14" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="51"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="53"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C15" s="51" t="s">
+      <c r="C15" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="51"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="53"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
@@ -2892,47 +2894,47 @@
       <c r="A23" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C23" s="53" t="s">
+      <c r="C23" s="55" t="s">
         <v>108</v>
       </c>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="53"/>
-      <c r="K23" s="53"/>
-      <c r="L23" s="53"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="55"/>
+      <c r="L23" s="55"/>
       <c r="N23" s="18"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="53"/>
-      <c r="L24" s="53"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="55"/>
+      <c r="L24" s="55"/>
       <c r="M24" s="15"/>
       <c r="N24" s="18"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C25" s="51" t="s">
+      <c r="C25" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="51"/>
-      <c r="J25" s="51"/>
-      <c r="K25" s="51"/>
-      <c r="L25" s="51"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="53"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="53"/>
       <c r="M25" s="9"/>
       <c r="N25" s="45"/>
     </row>
@@ -2956,18 +2958,18 @@
       <c r="N26" s="45"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C27" s="51" t="s">
+      <c r="C27" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="51"/>
-      <c r="J27" s="51"/>
-      <c r="K27" s="51"/>
-      <c r="L27" s="51"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="53"/>
+      <c r="J27" s="53"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="53"/>
       <c r="M27" s="12"/>
       <c r="N27" s="45"/>
     </row>
@@ -3001,14 +3003,14 @@
       <c r="G29" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="H29" s="52" t="s">
+      <c r="H29" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="I29" s="52"/>
-      <c r="J29" s="52"/>
-      <c r="K29" s="52"/>
-      <c r="L29" s="52"/>
-      <c r="M29" s="52"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="54"/>
+      <c r="K29" s="54"/>
+      <c r="L29" s="54"/>
+      <c r="M29" s="54"/>
       <c r="N29" s="47" t="s">
         <v>117</v>
       </c>
@@ -4899,17 +4901,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="C11:L11"/>
-    <mergeCell ref="C12:L12"/>
-    <mergeCell ref="C13:L13"/>
     <mergeCell ref="C27:L27"/>
     <mergeCell ref="H29:M29"/>
     <mergeCell ref="C23:L24"/>
     <mergeCell ref="C14:L14"/>
     <mergeCell ref="C15:L15"/>
     <mergeCell ref="C25:L25"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="C11:L11"/>
+    <mergeCell ref="C12:L12"/>
+    <mergeCell ref="C13:L13"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.71" right="0.51" top="1.77" bottom="0.93685039370078704" header="0.08" footer="0"/>
